--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60B70F6-D037-B042-AD7B-F5EEF69AB046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C7547-35D2-4345-ABFC-BB64FEC56406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="460" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="7560" yWindow="460" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,35 +657,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>1.6370609872731599</v>
+        <v>3.6138115769039594</v>
       </c>
       <c r="C2" s="20">
         <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>1.4165656021475406</v>
+        <v>2.0971529003535769</v>
       </c>
       <c r="D2" s="20">
         <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>1.2629949641529752</v>
+        <v>2.4905193438973363</v>
       </c>
       <c r="E2" s="20">
         <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>0.50662765468994797</v>
+        <v>1.0009580805208886</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>-1.8185683867056484</v>
+        <v>-3.6366085097482244</v>
       </c>
       <c r="G2" s="20">
         <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-2.3473298503785163</v>
+        <v>-1.4186857296634137</v>
       </c>
       <c r="H2" s="20">
         <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>-2.9097099963319768</v>
+        <v>-5.8136568991758857</v>
       </c>
       <c r="I2" s="20">
         <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-9.3914234726238579</v>
+        <v>-7.2652999373203908</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -962,8 +962,12 @@
       <c r="M14" s="3">
         <v>5.3927870000000003E-2</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="N14" s="10">
+        <v>10.180300000000001</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.156</v>
+      </c>
       <c r="P14" s="4">
         <v>10.163</v>
       </c>
@@ -972,6 +976,9 @@
       </c>
       <c r="T14" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="U14">
+        <v>26976.145833333328</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -1189,41 +1196,41 @@
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="18" t="e">
+      <c r="B26" s="18">
         <f t="shared" ref="B26:B32" si="1">LN( _xlfn.NORM.DIST( LN($U14), B14, C14, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>1.2275243797443613</v>
       </c>
       <c r="C26" s="18"/>
-      <c r="D26" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F26" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D26" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1261235353034671</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="0"/>
+        <v>-1.818040123042576</v>
       </c>
       <c r="G26" s="18"/>
-      <c r="H26" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J26" s="18" t="e">
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.49433042583094072</v>
+      </c>
+      <c r="J26" s="18">
         <f>LN( _xlfn.NORM.DIST( LN($U14), J14, K14, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>1.9767505896307995</v>
       </c>
       <c r="K26" s="18"/>
-      <c r="L26" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N26" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="L26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.68058729820603658</v>
+      </c>
+      <c r="N26" s="18">
+        <f t="shared" si="0"/>
+        <v>0.92864412071510261</v>
       </c>
       <c r="O26" s="18"/>
-      <c r="P26" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P26" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.9039469028439084</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92C7547-35D2-4345-ABFC-BB64FEC56406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D112B-137F-C24F-8A24-3214629AC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="460" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="40920" yWindow="3520" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,25 +611,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -657,35 +657,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>3.6138115769039594</v>
+        <v>5.2967414479600636</v>
       </c>
       <c r="C2" s="20">
+        <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
+        <v>4.6262358774926247</v>
+      </c>
+      <c r="D2" s="20">
         <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>2.0971529003535769</v>
-      </c>
-      <c r="D2" s="20">
-        <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>2.4905193438973363</v>
+        <v>3.8298904950124015</v>
       </c>
       <c r="E2" s="20">
         <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>1.0009580805208886</v>
+        <v>3.2669458550216843</v>
       </c>
       <c r="F2" s="20">
+        <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
+        <v>-0.23030125119767764</v>
+      </c>
+      <c r="G2" s="20">
+        <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
+        <v>-3.8640199077006345</v>
+      </c>
+      <c r="H2" s="20">
+        <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
+        <v>-5.4070464101176308</v>
+      </c>
+      <c r="I2" s="20">
         <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>-3.6366085097482244</v>
-      </c>
-      <c r="G2" s="20">
-        <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-1.4186857296634137</v>
-      </c>
-      <c r="H2" s="20">
-        <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>-5.8136568991758857</v>
-      </c>
-      <c r="I2" s="20">
-        <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-7.2652999373203908</v>
+        <v>-5.4555393915237804</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -985,18 +985,59 @@
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="B15" s="18">
+        <v>10.27338</v>
+      </c>
+      <c r="C15" s="18">
+        <v>4.3868940000000002E-2</v>
+      </c>
+      <c r="D15">
+        <v>10.2693714521555</v>
+      </c>
+      <c r="E15">
+        <v>6.0889672273495697E-2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>10.23057</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.4594450000000001</v>
+      </c>
+      <c r="H15" s="20">
+        <v>10.267211</v>
+      </c>
+      <c r="I15" s="20">
+        <v>3.9988000000000003E-2</v>
+      </c>
+      <c r="J15" s="24">
+        <v>10.300990000000001</v>
+      </c>
+      <c r="K15" s="24">
+        <v>3.9166470000000002E-2</v>
+      </c>
+      <c r="L15">
+        <v>10.215</v>
+      </c>
+      <c r="M15">
+        <v>4.9239730000000002E-2</v>
+      </c>
+      <c r="N15" s="18">
+        <v>10.183255000000001</v>
+      </c>
+      <c r="O15" s="18">
+        <v>6.9473999999999994E-2</v>
+      </c>
+      <c r="P15">
+        <v>10.253220000000001</v>
+      </c>
+      <c r="Q15">
+        <v>5.6669999999999998E-2</v>
+      </c>
       <c r="T15" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="U15">
+        <v>28473.958330000001</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="20" x14ac:dyDescent="0.25">
@@ -1237,41 +1278,41 @@
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="18" t="e">
+      <c r="B27" s="18">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.1357165335952883</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F27" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D27" s="20">
+        <f t="shared" si="0"/>
+        <v>1.8582535272027603</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="0"/>
+        <v>-1.8189308817755563</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J27" s="18" t="e">
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>2.2659877745007959</v>
+      </c>
+      <c r="J27" s="18">
         <f>LN( _xlfn.NORM.DIST( LN($U15), J15, K15, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>1.6829298710561045</v>
       </c>
       <c r="K27" s="18"/>
-      <c r="L27" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="L27" s="20">
+        <f t="shared" si="0"/>
+        <v>1.7327375946588244</v>
+      </c>
+      <c r="N27" s="18">
+        <f t="shared" si="0"/>
+        <v>1.188384478465736</v>
       </c>
       <c r="O27" s="18"/>
-      <c r="P27" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P27" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9496369914752512</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D112B-137F-C24F-8A24-3214629AC499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47BDBE-813C-F547-B50D-C58C62150A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="3520" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="38560" yWindow="-1120" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +219,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -252,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +286,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +604,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,16 +627,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -657,35 +664,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>5.2967414479600636</v>
+        <v>7.1787918578037369</v>
       </c>
       <c r="C2" s="20">
         <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>4.6262358774926247</v>
+        <v>5.9591781173522849</v>
       </c>
       <c r="D2" s="20">
         <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>3.8298904950124015</v>
+        <v>5.8513672720971339</v>
       </c>
       <c r="E2" s="20">
         <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>3.2669458550216843</v>
+        <v>5.3474889802172285</v>
       </c>
       <c r="F2" s="20">
+        <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
+        <v>-2.2548453117438001</v>
+      </c>
+      <c r="G2" s="20">
         <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-0.23030125119767764</v>
-      </c>
-      <c r="G2" s="20">
-        <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>-3.8640199077006345</v>
+        <v>-2.3322933848821217</v>
       </c>
       <c r="H2" s="20">
+        <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
+        <v>-3.6594170792600855</v>
+      </c>
+      <c r="I2" s="20">
         <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-5.4070464101176308</v>
-      </c>
-      <c r="I2" s="20">
-        <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>-5.4555393915237804</v>
+        <v>-5.8857181176292963</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1044,18 +1051,59 @@
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="B16" s="18">
+        <v>10.33249</v>
+      </c>
+      <c r="C16" s="18">
+        <v>7.2774549999999993E-2</v>
+      </c>
+      <c r="D16">
+        <v>10.312717450669499</v>
+      </c>
+      <c r="E16">
+        <v>1.5664307873005202E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>10.287850000000001</v>
+      </c>
+      <c r="G16" s="18">
+        <v>6.3652100000000003E-2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>10.249727</v>
+      </c>
+      <c r="I16" s="20">
+        <v>4.4999877869051602E-2</v>
+      </c>
+      <c r="J16" s="24">
+        <v>10.304690000000001</v>
+      </c>
+      <c r="K16" s="24">
+        <v>4.5351559999999999E-2</v>
+      </c>
+      <c r="L16">
+        <v>10.288500000000001</v>
+      </c>
+      <c r="M16" s="27">
+        <v>4.9248930000000003E-2</v>
+      </c>
+      <c r="N16" s="18">
+        <v>10.265625</v>
+      </c>
+      <c r="O16" s="18">
+        <v>3.2643239999999998</v>
+      </c>
+      <c r="P16">
+        <v>10.31814</v>
+      </c>
+      <c r="Q16">
+        <v>5.2040000000000003E-2</v>
+      </c>
       <c r="T16" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="U16">
+        <v>28854.270833333328</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -1319,41 +1367,41 @@
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="18" t="e">
+      <c r="B28" s="18">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.33294223985966</v>
       </c>
       <c r="C28" s="18"/>
-      <c r="D28" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.47867170751166538</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="0"/>
+        <v>1.7961223122636949</v>
       </c>
       <c r="G28" s="18"/>
-      <c r="H28" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J28" s="18" t="e">
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0805431251955446</v>
+      </c>
+      <c r="J28" s="18">
         <f>LN( _xlfn.NORM.DIST( LN($U16), J16, K16, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>1.8820504098436734</v>
       </c>
       <c r="K28" s="18"/>
-      <c r="L28" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="L28" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0214767770847319</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" si="0"/>
+        <v>-2.101992133684444</v>
       </c>
       <c r="O28" s="18"/>
-      <c r="P28" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P28" s="20">
+        <f t="shared" si="0"/>
+        <v>1.6091745959568344</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47BDBE-813C-F547-B50D-C58C62150A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CE64A-250D-E244-BA03-A65803BB5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38560" yWindow="-1120" windowWidth="23240" windowHeight="13580" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="5900" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,10 +621,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
@@ -664,35 +664,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>7.1787918578037369</v>
+        <v>8.4668068344347276</v>
       </c>
       <c r="C2" s="20">
         <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>5.9591781173522849</v>
+        <v>7.6306100497501337</v>
       </c>
       <c r="D2" s="20">
+        <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
+        <v>7.4038854271899854</v>
+      </c>
+      <c r="E2" s="20">
         <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>5.8513672720971339</v>
-      </c>
-      <c r="E2" s="20">
-        <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>5.3474889802172285</v>
+        <v>4.4997672036868286</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>-2.2548453117438001</v>
+        <v>-0.54710353181664551</v>
       </c>
       <c r="G2" s="20">
         <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-2.3322933848821217</v>
+        <v>-1.5254916226358517</v>
       </c>
       <c r="H2" s="20">
         <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>-3.6594170792600855</v>
+        <v>-1.8369595744330498</v>
       </c>
       <c r="I2" s="20">
         <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-5.8857181176292963</v>
+        <v>-3.7536196240714355</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1106,23 +1106,66 @@
         <v>28854.270833333328</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="B17" s="18">
+        <v>10.16554</v>
+      </c>
+      <c r="C17" s="18">
+        <v>6.2038500000000003E-2</v>
+      </c>
+      <c r="D17">
+        <v>10.104413064354301</v>
+      </c>
+      <c r="E17">
+        <v>4.0217881797058597E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>10.116860000000001</v>
+      </c>
+      <c r="G17" s="18">
+        <v>6.3612070000000007E-2</v>
+      </c>
+      <c r="H17" s="20">
+        <v>10.151002999999999</v>
+      </c>
+      <c r="I17" s="20">
+        <v>4.4219763000000002E-2</v>
+      </c>
+      <c r="J17" s="24">
+        <v>10.18364</v>
+      </c>
+      <c r="K17" s="24">
+        <v>3.9180050000000001E-2</v>
+      </c>
+      <c r="L17">
+        <v>10.254149999999999</v>
+      </c>
+      <c r="M17">
+        <v>4.8168379999999997E-2</v>
+      </c>
+      <c r="N17" s="18">
+        <v>10.230823000000001</v>
+      </c>
+      <c r="O17" s="18">
+        <v>8.5322999999999996E-2</v>
+      </c>
+      <c r="P17">
+        <v>10.17062</v>
+      </c>
+      <c r="Q17">
+        <v>4.879E-2</v>
+      </c>
       <c r="T17" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>25017.583333333328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1188,7 +1231,7 @@
       <c r="O21" s="18"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1200,10 +1243,10 @@
       <c r="O22" s="18"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1324,7 @@
       </c>
       <c r="Q25" s="20"/>
     </row>
-    <row r="26" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1365,7 @@
         <v>-2.9039469028439084</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1406,7 @@
         <v>1.9496369914752512</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -1404,53 +1447,53 @@
         <v>1.6091745959568344</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+      <c r="B29" s="18">
+        <f>LN( _xlfn.NORM.DIST( LN($U17), B17, C17, 0 ) )</f>
+        <v>1.671431932397849</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F29" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D29" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1320984935578609</v>
+      </c>
+      <c r="F29" s="18">
+        <f>LN( _xlfn.NORM.DIST( LN($U17), F17, G17, 0 ) )</f>
+        <v>1.8224575048270357</v>
       </c>
       <c r="G29" s="18"/>
-      <c r="H29" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J29" s="18" t="e">
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0563964469727569</v>
+      </c>
+      <c r="J29" s="18">
         <f t="shared" ref="J29:J32" si="2">LN( _xlfn.NORM.DIST( LN($U17), J17, K17, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>1.2880149766309903</v>
       </c>
       <c r="K29" s="18"/>
-      <c r="L29" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="L29" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.3516000684103051</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="0"/>
+        <v>0.80680176224626998</v>
       </c>
       <c r="O29" s="18"/>
-      <c r="P29" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="P29" s="20">
+        <f t="shared" si="0"/>
+        <v>1.7077417799271546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="18" t="e">
-        <f t="shared" si="1"/>
+        <f>LN( _xlfn.NORM.DIST( LN($U18), B18, C18, 0 ) )</f>
         <v>#NUM!</v>
       </c>
       <c r="C30" s="18"/>
@@ -1459,7 +1502,7 @@
         <v>#NUM!</v>
       </c>
       <c r="F30" s="18" t="e">
-        <f t="shared" si="0"/>
+        <f>LN( _xlfn.NORM.DIST( LN($U18), F18, G18, 0 ) )</f>
         <v>#NUM!</v>
       </c>
       <c r="G30" s="18"/>
@@ -1486,7 +1529,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1570,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>21</v>
       </c>
@@ -1591,8 +1634,8 @@
       <c r="O34" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:I2">
-    <sortCondition descending="1" ref="B2:I2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:I2">
+    <sortCondition descending="1" ref="A2:I2"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CE64A-250D-E244-BA03-A65803BB5E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D95D23-9E1B-714B-8A16-A884A5859CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="4740" yWindow="460" windowWidth="23260" windowHeight="16160" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,16 +1169,54 @@
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="B18" s="18">
+        <v>10.21856</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4.9150489999999998E-2</v>
+      </c>
+      <c r="D18">
+        <v>10.2479126841792</v>
+      </c>
+      <c r="E18">
+        <v>3.00047010642495E-2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>10.20628</v>
+      </c>
+      <c r="G18" s="18">
+        <v>6.3572959999999998E-2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>10.224</v>
+      </c>
+      <c r="I18" s="20">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="J18" s="18">
+        <v>10.247249999999999</v>
+      </c>
+      <c r="K18" s="18">
+        <v>4.6216849999999997E-2</v>
+      </c>
+      <c r="L18" s="20">
+        <v>10.20459</v>
+      </c>
+      <c r="M18" s="20">
+        <v>4.8135659999999997E-2</v>
+      </c>
+      <c r="N18" s="18">
+        <v>10.185255</v>
+      </c>
+      <c r="O18" s="18">
+        <v>5.9166290000000003E-2</v>
+      </c>
+      <c r="P18" s="20">
+        <v>10.21345</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>4.888E-2</v>
+      </c>
       <c r="T18" s="6" t="s">
         <v>27</v>
       </c>

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D95D23-9E1B-714B-8A16-A884A5859CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968E329-B67D-B34D-AC63-D99FCD32C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="460" windowWidth="23260" windowHeight="16160" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967CD6C7-451E-0748-9748-9A42CF32D73A}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,10 +630,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>3</v>
@@ -664,35 +664,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>8.4668068344347276</v>
+        <v>9.7433124860919769</v>
       </c>
       <c r="C2" s="20">
         <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>7.6306100497501337</v>
+        <v>8.0492642969715114</v>
       </c>
       <c r="D2" s="20">
         <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>7.4038854271899854</v>
+        <v>7.4446942138117951</v>
       </c>
       <c r="E2" s="20">
         <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>4.4997672036868286</v>
+        <v>4.2833513953049041</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>-0.54710353181664551</v>
+        <v>-0.33940517476017618</v>
       </c>
       <c r="G2" s="20">
+        <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
+        <v>-1.2937259148958735</v>
+      </c>
+      <c r="H2" s="20">
         <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-1.5254916226358517</v>
-      </c>
-      <c r="H2" s="20">
-        <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>-1.8369595744330498</v>
+        <v>-1.7874990494700194</v>
       </c>
       <c r="I2" s="20">
         <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-3.7536196240714355</v>
+        <v>-3.2067198342261172</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1220,6 +1220,9 @@
       <c r="T18" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="U18">
+        <v>29987.25</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -1530,41 +1533,41 @@
       <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="18" t="e">
+      <c r="B30" s="18">
         <f>LN( _xlfn.NORM.DIST( LN($U18), B18, C18, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>0.41865424722137806</v>
       </c>
       <c r="C30" s="18"/>
-      <c r="D30" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F30" s="18" t="e">
+      <c r="D30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54689978984531828</v>
+      </c>
+      <c r="F30" s="18">
         <f>LN( _xlfn.NORM.DIST( LN($U18), F18, G18, 0 ) )</f>
-        <v>#NUM!</v>
+        <v>0.54323365953717617</v>
       </c>
       <c r="G30" s="18"/>
-      <c r="H30" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J30" s="18" t="e">
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>4.0808786621810048E-2</v>
+      </c>
+      <c r="J30" s="18">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>1.2765056516572502</v>
       </c>
       <c r="K30" s="18"/>
-      <c r="L30" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N30" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="L30" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.21641580838192434</v>
+      </c>
+      <c r="N30" s="18">
+        <f t="shared" si="0"/>
+        <v>-0.26200742683416767</v>
       </c>
       <c r="O30" s="18"/>
-      <c r="P30" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20769835705646933</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -1672,8 +1675,8 @@
       <c r="O34" s="18"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:I2">
-    <sortCondition descending="1" ref="A2:I2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:I2">
+    <sortCondition descending="1" ref="B2:I2"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9968E329-B67D-B34D-AC63-D99FCD32C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F895E1FE-D213-8842-9FF6-3A70669063CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="460" windowWidth="23260" windowHeight="16160" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="3660" yWindow="460" windowWidth="24340" windowHeight="16160" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967CD6C7-451E-0748-9748-9A42CF32D73A}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,35 +664,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>9.7433124860919769</v>
+        <v>11.316063526115544</v>
       </c>
       <c r="C2" s="20">
         <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>8.0492642969715114</v>
+        <v>9.9358931414994238</v>
       </c>
       <c r="D2" s="20">
         <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>7.4446942138117951</v>
+        <v>9.6442705105794921</v>
       </c>
       <c r="E2" s="20">
         <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>4.2833513953049041</v>
+        <v>6.3582330005706735</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>-0.33940517476017618</v>
+        <v>1.7565172080304863</v>
       </c>
       <c r="G2" s="20">
         <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>-1.2937259148958735</v>
+        <v>3.0064647122320709E-2</v>
       </c>
       <c r="H2" s="20">
         <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-1.7874990494700194</v>
+        <v>-0.33606720988131711</v>
       </c>
       <c r="I2" s="20">
         <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-3.2067198342261172</v>
+        <v>-1.2625952403869991</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1228,34 +1228,113 @@
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="B19" s="18">
+        <v>10.30555</v>
+      </c>
+      <c r="C19" s="18">
+        <v>5.9181879999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>10.284708709657</v>
+      </c>
+      <c r="E19">
+        <v>4.1530461453203903E-2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10.25404</v>
+      </c>
+      <c r="G19" s="18">
+        <v>5.8132049999999998E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>10.297283999999999</v>
+      </c>
+      <c r="I19" s="20">
+        <v>3.8285E-2</v>
+      </c>
+      <c r="J19" s="24">
+        <v>10.269780000000001</v>
+      </c>
+      <c r="K19" s="24">
+        <v>3.9542420000000002E-2</v>
+      </c>
+      <c r="L19" s="20">
+        <v>10.309089999999999</v>
+      </c>
+      <c r="M19" s="20">
+        <v>4.9312740000000001E-2</v>
+      </c>
+      <c r="N19" s="18">
+        <v>10.279210000000001</v>
+      </c>
+      <c r="O19" s="18">
+        <v>8.4085999999999994E-2</v>
+      </c>
+      <c r="P19" s="20">
+        <v>10.314109999999999</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>4.8910000000000002E-2</v>
+      </c>
       <c r="T19" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="U19">
+        <v>30267.895833333299</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="B20" s="18">
+        <v>10.34582</v>
+      </c>
+      <c r="C20" s="18">
+        <v>4.1997199999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>10.3391328841569</v>
+      </c>
+      <c r="E20">
+        <v>3.1128680256294401E-2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>10.25417</v>
+      </c>
+      <c r="G20" s="18">
+        <v>5.8094279999999998E-2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>10.193564</v>
+      </c>
+      <c r="I20" s="20">
+        <v>4.3531986729803698E-2</v>
+      </c>
+      <c r="J20" s="24">
+        <v>10.20565</v>
+      </c>
+      <c r="K20" s="24">
+        <v>3.6771190000000002E-2</v>
+      </c>
+      <c r="L20" s="25">
+        <v>10.21313</v>
+      </c>
+      <c r="M20" s="25">
+        <v>4.9336039999999998E-2</v>
+      </c>
+      <c r="N20" s="18">
+        <v>10.281853</v>
+      </c>
+      <c r="O20" s="18">
+        <v>8.4030999999999995E-2</v>
+      </c>
+      <c r="P20" s="20">
+        <v>10.254289999999999</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>4.8379999999999999E-2</v>
+      </c>
       <c r="T20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1574,41 +1653,41 @@
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="18" t="e">
+      <c r="B31" s="18">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.8866288445279131</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F31" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D31" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9441245938391181</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="0"/>
+        <v>1.3237905620181942</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J31" s="18" t="e">
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1995762967676971</v>
+      </c>
+      <c r="J31" s="18">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>1.5727510400235662</v>
       </c>
       <c r="K31" s="18"/>
-      <c r="L31" s="20" t="e">
+      <c r="L31" s="20">
         <f>LN( _xlfn.NORM.DIST( LN($U19), L19, M19, 0 ) )</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N31" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>2.0748816052657695</v>
+      </c>
+      <c r="N31" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4514318395887023</v>
       </c>
       <c r="O31" s="18"/>
-      <c r="P31" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P31" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0959223827906626</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="20" x14ac:dyDescent="0.25">

--- a/Scoring Forecasting Competition.xlsx
+++ b/Scoring Forecasting Competition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nz3618/Desktop/Forecasting Competition/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F895E1FE-D213-8842-9FF6-3A70669063CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC19D5-6807-5B43-A41C-72F8E4E45BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="460" windowWidth="24340" windowHeight="16160" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
+    <workbookView xWindow="1360" yWindow="2980" windowWidth="24340" windowHeight="16160" xr2:uid="{198224F8-EE29-E944-BE8A-D9E813220B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,13 +618,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
@@ -664,35 +664,35 @@
       </c>
       <c r="B2" s="20">
         <f>SUMIF($J25:$J34,"&lt;&gt;#NUM!")</f>
-        <v>11.316063526115544</v>
+        <v>13.28455874452237</v>
       </c>
       <c r="C2" s="20">
+        <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
+        <v>11.73832297634387</v>
+      </c>
+      <c r="D2" s="20">
+        <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
+        <v>8.1030068519058496</v>
+      </c>
+      <c r="E2" s="20">
         <f>SUMIF($B25:$B34,"&lt;&gt;#NUM!")</f>
-        <v>9.9358931414994238</v>
-      </c>
-      <c r="D2" s="20">
-        <f>SUMIF($H25:$H34,"&lt;&gt;#NUM!")</f>
-        <v>9.6442705105794921</v>
-      </c>
-      <c r="E2" s="20">
-        <f>SUMIF($L25:$L34,"&lt;&gt;#NUM!")</f>
-        <v>6.3582330005706735</v>
+        <v>3.6344287011214291</v>
       </c>
       <c r="F2" s="20">
         <f>SUMIF($P25:$P34,"&lt;&gt;#NUM!")</f>
-        <v>1.7565172080304863</v>
+        <v>2.424105123309928</v>
       </c>
       <c r="G2" s="20">
         <f>SUMIF($F25:$F34,"&lt;&gt;#NUM!")</f>
-        <v>3.0064647122320709E-2</v>
+        <v>0.95956516561838157</v>
       </c>
       <c r="H2" s="20">
         <f>SUMIF($N25:$N34,"&lt;&gt;#NUM!")</f>
-        <v>-0.33606720988131711</v>
+        <v>0.36900765400328628</v>
       </c>
       <c r="I2" s="20">
         <f>SUMIF($D25:$D34,"&lt;&gt;#NUM!")</f>
-        <v>-1.2625952403869991</v>
+        <v>-13.103890839098604</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -1338,6 +1338,9 @@
       <c r="T20" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="U20">
+        <v>26163.625</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1694,41 +1697,41 @@
       <c r="A32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="18" t="e">
+      <c r="B32" s="18">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>-6.3014644403779947</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F32" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D32" s="20">
+        <f t="shared" si="0"/>
+        <v>-11.841295598711605</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="0"/>
+        <v>0.92950051849606086</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J32" s="18" t="e">
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0940524657643773</v>
+      </c>
+      <c r="J32" s="18">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>1.9684952184068256</v>
       </c>
       <c r="K32" s="18"/>
-      <c r="L32" s="20" t="e">
+      <c r="L32" s="20">
         <f>LN( _xlfn.NORM.DIST( LN($U20), L20, M20, 0 ) )</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>1.7447738513351769</v>
+      </c>
+      <c r="N32" s="18">
+        <f t="shared" si="0"/>
+        <v>0.70507486388460339</v>
       </c>
       <c r="O32" s="18"/>
-      <c r="P32" s="20" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="P32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.66758791527944161</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20" x14ac:dyDescent="0.25">
